--- a/36522.xlsx
+++ b/36522.xlsx
@@ -2,24 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Of Records" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -45,6 +44,13 @@
       <color indexed="17"/>
       <sz val="16"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -55,17 +61,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000CCFF"/>
+        <fgColor rgb="FF00CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,11 +96,18 @@
       <bottom style="thin">
         <color indexed="0"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -127,12 +140,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="resultPassStyle" xfId="1" hidden="0"/>
-    <cellStyle name="resultFailStyle" xfId="2" hidden="0"/>
-    <cellStyle name="defaultContentStyle" xfId="3" hidden="0"/>
-    <cellStyle name="normalContentStyle" xfId="4" hidden="0"/>
-    <cellStyle name="abnormalContentStyle" xfId="5" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="resultPassStyle" xfId="1"/>
+    <cellStyle name="resultFailStyle" xfId="2"/>
+    <cellStyle name="defaultContentStyle" xfId="3"/>
+    <cellStyle name="normalContentStyle" xfId="4"/>
+    <cellStyle name="abnormalContentStyle" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -492,36 +505,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="001072BA"/>
+    <tabColor rgb="FF1072BA"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="14.38" customWidth="1" min="3" max="3"/>
+    <col width="14.375" customWidth="1" min="3" max="3"/>
     <col width="17.25" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
-    <col width="11.88" customWidth="1" min="6" max="6"/>
-    <col width="11.88" customWidth="1" min="7" max="7"/>
-    <col width="12.13" customWidth="1" min="8" max="8"/>
+    <col width="11.875" customWidth="1" min="6" max="7"/>
+    <col width="12.125" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11.88" customWidth="1" min="10" max="10"/>
-    <col width="11.88" customWidth="1" min="11" max="11"/>
-    <col width="12.13" customWidth="1" min="12" max="12"/>
+    <col width="11.875" customWidth="1" min="10" max="11"/>
+    <col width="12.125" customWidth="1" min="12" max="12"/>
     <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="11.88" customWidth="1" min="14" max="14"/>
-    <col width="6.38" customWidth="1" min="15" max="15"/>
+    <col width="11.875" customWidth="1" min="14" max="14"/>
+    <col width="6.375" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>检测员</t>
@@ -598,7 +609,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>李爱明</t>
@@ -606,224 +617,1148 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>2021年07月03日 11:59:26</t>
+          <t>2021年07月06日 12:04:03</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>21566</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月04日 19:11:27</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>33333</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20.25" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 17:08:19</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
           <t>94.0</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>1031.0</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>1025.0</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>在线</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45431</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>70.4</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 17:10:21</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>1018.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48249</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70.1</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 17:04:21</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62245</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:54:34</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>1016.0</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62246</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O7" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 17:07:41</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62248</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O8" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20.25" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:13:05</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62249</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O9" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="20.25" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:09:33</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6224A</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O10" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20.25" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:10:59</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6224B</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O11" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20.25" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:53:50</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>1016.9</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>6224C</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>449</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>70.2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O12" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:38:28</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6224D</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>45678</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>69.9</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20.25" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>李爱明</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 17:10:59</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>94.2</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>1020.0</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>在线</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6224E</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70.7</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45678</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>70.5</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O14" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="15" ht="20.25" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>李爱明</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>2021年07月03日 12:01:01</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 20:09:37</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>94.0</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>1021.0</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>1019.0</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>在线</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>6224E</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>70.7</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62250</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>70.8</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>45678</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>454</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>70.5</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+    <row r="16" ht="20.25" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>李爱明</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>2021年07月03日 12:01:57</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>1021.0</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>2021年07月06日 19:50:55</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>在线</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6224A</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>70.5</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>62251</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>71.4</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>45678</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>452</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>70.1</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>正常</t>
-        </is>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>71.3</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="O16" s="4" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -831,5 +1766,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>